--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1907.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB2903F-5256-4AFC-A6FD-60DAD0210A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CE3EC3-C30C-412A-921A-08A19163B8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57555" yWindow="60" windowWidth="29055" windowHeight="23205" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{26DDFB96-2A59-463B-8827-7F297B6E5252}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="136">
   <si>
     <t>губ</t>
   </si>
@@ -435,6 +435,15 @@
   </si>
   <si>
     <t>обусловлено отсутствием сведений половой разбивки по ряду областей</t>
+  </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
   </si>
 </sst>
 </file>
@@ -490,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -506,6 +515,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0A161-710E-49B7-BB61-44432D87D5A4}">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB122" sqref="AB122"/>
+      <selection pane="bottomRight" activeCell="AM38" sqref="AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -851,9 +861,10 @@
     <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,8 +949,17 @@
       <c r="AC1" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="AE1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1030,13 +1050,25 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
+      <c r="AE2" s="7">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="7">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>1207648</v>
+      <c r="B3" s="9">
+        <v>1207649</v>
       </c>
       <c r="C3" s="2">
         <v>46540</v>
@@ -1122,8 +1154,20 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
+      <c r="AE3" s="7">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="7">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="7">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1214,8 +1258,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE4" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1306,8 +1362,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE5" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1398,8 +1466,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1490,8 +1570,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE7" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1582,8 +1674,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE8" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1674,8 +1778,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE9" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1685,8 +1801,8 @@
       <c r="C10" s="2">
         <v>110620</v>
       </c>
-      <c r="D10" s="2">
-        <v>54894</v>
+      <c r="D10" s="9">
+        <v>54884</v>
       </c>
       <c r="F10" s="3">
         <v>121557</v>
@@ -1766,8 +1882,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE10" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1777,8 +1905,8 @@
       <c r="C11" s="2">
         <v>89905</v>
       </c>
-      <c r="D11" s="2">
-        <v>42124</v>
+      <c r="D11" s="9">
+        <v>42224</v>
       </c>
       <c r="F11" s="3">
         <v>109389</v>
@@ -1858,8 +1986,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE11" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1950,8 +2090,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE12" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2042,8 +2194,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE13" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2134,8 +2298,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE14" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2226,8 +2402,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE15" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2318,8 +2506,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE16" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2410,8 +2610,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE17" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2502,8 +2714,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE18" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2594,8 +2818,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2686,8 +2922,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE20" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2778,8 +3026,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE21" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2870,8 +3130,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE22" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2881,8 +3153,8 @@
       <c r="C23" s="2">
         <v>40535</v>
       </c>
-      <c r="D23" s="2">
-        <v>21551</v>
+      <c r="D23" s="9">
+        <v>21557</v>
       </c>
       <c r="F23" s="3">
         <v>41427</v>
@@ -2962,8 +3234,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE23" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3054,8 +3338,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE24" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3146,16 +3442,28 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE25" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>12183093</v>
       </c>
-      <c r="C26" s="2">
-        <v>436185</v>
+      <c r="C26" s="9">
+        <v>434485</v>
       </c>
       <c r="D26" s="2">
         <v>249729</v>
@@ -3238,8 +3546,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE26" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3330,8 +3650,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE27" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3422,8 +3754,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE28" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3514,8 +3858,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE29" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3525,8 +3881,8 @@
       <c r="C30" s="2">
         <v>64453</v>
       </c>
-      <c r="D30" s="2">
-        <v>47312</v>
+      <c r="D30" s="9">
+        <v>47262</v>
       </c>
       <c r="F30" s="3">
         <v>317132</v>
@@ -3606,8 +3962,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE30" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3698,8 +4066,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE31" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3790,8 +4170,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE32" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3882,8 +4274,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE33" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3974,8 +4378,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE34" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4066,8 +4482,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE35" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -4158,8 +4586,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE36" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4250,8 +4690,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE37" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -4342,8 +4794,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE38" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -4434,8 +4898,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE39" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4526,8 +5002,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE40" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4618,8 +5106,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -4710,8 +5210,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE42" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4802,8 +5314,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE43" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4894,8 +5418,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE44" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -4986,8 +5522,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE45" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5078,8 +5626,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE46" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5170,8 +5730,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE47" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5262,8 +5834,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE48" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5354,8 +5938,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE49" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -5446,8 +6042,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE50" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5538,8 +6146,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE51" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -5630,8 +6250,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE52" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -5722,8 +6354,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE53" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5814,8 +6458,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE54" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5906,8 +6562,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE55" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -5998,8 +6666,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE56" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6090,8 +6770,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE57" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6182,8 +6874,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE58" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -6274,8 +6978,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE59" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -6366,8 +7082,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE60" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -6458,8 +7186,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE61" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -6550,8 +7290,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE62" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -6642,8 +7394,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE63" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6734,8 +7498,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE64" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6826,8 +7602,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE65" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -6918,8 +7706,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AE66" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -6942,7 +7742,7 @@
         <v>478556</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I107" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I107" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="3">
@@ -6955,7 +7755,7 @@
         <v>14719</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67:M107" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M107" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="3">
@@ -6968,7 +7768,7 @@
         <v>10150</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" ref="Q67:Q107" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q107" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="3">
@@ -6981,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="5">
-        <f t="shared" ref="U67:U107" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U107" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="3">
@@ -6994,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" ref="Y67:Y107" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y107" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="3">
@@ -7007,11 +7807,23 @@
         <v>0</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" ref="AC67:AC107" si="11">Z67+AA67-AB67</f>
+        <f t="shared" ref="AC67:AC107" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="7">
+        <f t="shared" ref="AE67:AE122" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="7">
+        <f t="shared" ref="AF67:AF122" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="7">
+        <f t="shared" ref="AG67:AG122" si="17">D67-P67-AB67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -7034,7 +7846,7 @@
         <v>274533</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="3">
@@ -7047,7 +7859,7 @@
         <v>8823</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="3">
@@ -7060,7 +7872,7 @@
         <v>5929</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="3">
@@ -7073,7 +7885,7 @@
         <v>2461870</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="3">
@@ -7086,7 +7898,7 @@
         <v>110261</v>
       </c>
       <c r="Y68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="3">
@@ -7099,11 +7911,23 @@
         <v>58944</v>
       </c>
       <c r="AC68" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -7126,7 +7950,7 @@
         <v>161724</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="3">
@@ -7139,7 +7963,7 @@
         <v>7724</v>
       </c>
       <c r="M69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="3">
@@ -7152,7 +7976,7 @@
         <v>6225</v>
       </c>
       <c r="Q69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="3">
@@ -7165,7 +7989,7 @@
         <v>1099858</v>
       </c>
       <c r="U69" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="3">
@@ -7178,7 +8002,7 @@
         <v>44728</v>
       </c>
       <c r="Y69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="3">
@@ -7191,19 +8015,31 @@
         <v>28557</v>
       </c>
       <c r="AC69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="2">
-        <v>86105523</v>
-      </c>
-      <c r="C70" s="2">
-        <v>3187411</v>
+      <c r="B70" s="9">
+        <v>81105493</v>
+      </c>
+      <c r="C70" s="9">
+        <v>3887411</v>
       </c>
       <c r="D70" s="2">
         <v>2387568</v>
@@ -7218,7 +8054,7 @@
         <v>10306080</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70" s="3">
@@ -7231,7 +8067,7 @@
         <v>396775</v>
       </c>
       <c r="M70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N70" s="3">
@@ -7244,7 +8080,7 @@
         <v>299011</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="3">
@@ -7257,7 +8093,7 @@
         <v>70799413</v>
       </c>
       <c r="U70" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="V70" s="3">
@@ -7270,7 +8106,7 @@
         <v>3490636</v>
       </c>
       <c r="Y70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z70" s="3">
@@ -7283,11 +8119,23 @@
         <v>2088557</v>
       </c>
       <c r="AC70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -7310,7 +8158,7 @@
         <v>346016</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="3">
@@ -7323,7 +8171,7 @@
         <v>16456</v>
       </c>
       <c r="M71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="3">
@@ -7336,7 +8184,7 @@
         <v>12422</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R71" s="3">
@@ -7349,7 +8197,7 @@
         <v>2631670</v>
       </c>
       <c r="U71" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="3">
@@ -7362,7 +8210,7 @@
         <v>142883</v>
       </c>
       <c r="Y71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z71" s="3">
@@ -7375,11 +8223,23 @@
         <v>84114</v>
       </c>
       <c r="AC71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -7402,7 +8262,7 @@
         <v>16517549</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J72" s="3">
@@ -7415,7 +8275,7 @@
         <v>611357</v>
       </c>
       <c r="M72" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N72" s="3">
@@ -7428,7 +8288,7 @@
         <v>443438</v>
       </c>
       <c r="Q72" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R72" s="3">
@@ -7441,7 +8301,7 @@
         <v>108974914</v>
       </c>
       <c r="U72" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V72" s="3">
@@ -7454,7 +8314,7 @@
         <v>5063130</v>
       </c>
       <c r="Y72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z72" s="3">
@@ -7467,11 +8327,23 @@
         <v>2964999</v>
       </c>
       <c r="AC72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -7494,7 +8366,7 @@
         <v>178757</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73" s="3">
@@ -7507,7 +8379,7 @@
         <v>909</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N73" s="3">
@@ -7520,7 +8392,7 @@
         <v>4848</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R73" s="3">
@@ -7533,7 +8405,7 @@
         <v>795769</v>
       </c>
       <c r="U73" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V73" s="3">
@@ -7546,7 +8418,7 @@
         <v>25982</v>
       </c>
       <c r="Y73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z73" s="3">
@@ -7559,11 +8431,23 @@
         <v>14605</v>
       </c>
       <c r="AC73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -7586,7 +8470,7 @@
         <v>31545</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74" s="3">
@@ -7599,7 +8483,7 @@
         <v>857</v>
       </c>
       <c r="M74" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N74" s="3">
@@ -7612,7 +8496,7 @@
         <v>524</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R74" s="3">
@@ -7625,7 +8509,7 @@
         <v>124920</v>
       </c>
       <c r="U74" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V74" s="3">
@@ -7638,7 +8522,7 @@
         <v>2951</v>
       </c>
       <c r="Y74" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z74" s="3">
@@ -7651,11 +8535,23 @@
         <v>1825</v>
       </c>
       <c r="AC74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -7678,7 +8574,7 @@
         <v>60358</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J75" s="3">
@@ -7691,7 +8587,7 @@
         <v>1591</v>
       </c>
       <c r="M75" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N75" s="3">
@@ -7704,7 +8600,7 @@
         <v>1131</v>
       </c>
       <c r="Q75" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R75" s="3">
@@ -7717,7 +8613,7 @@
         <v>607157</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V75" s="3">
@@ -7730,7 +8626,7 @@
         <v>13689</v>
       </c>
       <c r="Y75" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z75" s="3">
@@ -7743,11 +8639,23 @@
         <v>10703</v>
       </c>
       <c r="AC75" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -7770,7 +8678,7 @@
         <v>111131</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J76" s="3">
@@ -7783,7 +8691,7 @@
         <v>2048</v>
       </c>
       <c r="M76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N76" s="3">
@@ -7796,7 +8704,7 @@
         <v>1679</v>
       </c>
       <c r="Q76" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R76" s="3">
@@ -7809,7 +8717,7 @@
         <v>980954</v>
       </c>
       <c r="U76" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V76" s="3">
@@ -7822,7 +8730,7 @@
         <v>19558</v>
       </c>
       <c r="Y76" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z76" s="3">
@@ -7835,11 +8743,23 @@
         <v>12916</v>
       </c>
       <c r="AC76" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -7862,7 +8782,7 @@
         <v>40069</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J77" s="3">
@@ -7875,7 +8795,7 @@
         <v>684</v>
       </c>
       <c r="M77" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N77" s="3">
@@ -7888,7 +8808,7 @@
         <v>406</v>
       </c>
       <c r="Q77" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R77" s="3">
@@ -7901,7 +8821,7 @@
         <v>317222</v>
       </c>
       <c r="U77" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V77" s="3">
@@ -7914,7 +8834,7 @@
         <v>12961</v>
       </c>
       <c r="Y77" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z77" s="3">
@@ -7927,11 +8847,23 @@
         <v>6135</v>
       </c>
       <c r="AC77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -7954,7 +8886,7 @@
         <v>191638</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78" s="3">
@@ -7967,7 +8899,7 @@
         <v>9371</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N78" s="3">
@@ -7980,7 +8912,7 @@
         <v>6622</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R78" s="3">
@@ -7993,7 +8925,7 @@
         <v>2267331</v>
       </c>
       <c r="U78" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V78" s="3">
@@ -8006,7 +8938,7 @@
         <v>127268</v>
       </c>
       <c r="Y78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z78" s="3">
@@ -8019,11 +8951,23 @@
         <v>64476</v>
       </c>
       <c r="AC78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -8046,7 +8990,7 @@
         <v>66597</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J79" s="3">
@@ -8059,7 +9003,7 @@
         <v>1562</v>
       </c>
       <c r="M79" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N79" s="3">
@@ -8072,7 +9016,7 @@
         <v>1017</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R79" s="3">
@@ -8085,7 +9029,7 @@
         <v>873309</v>
       </c>
       <c r="U79" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V79" s="3">
@@ -8098,7 +9042,7 @@
         <v>23096</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z79" s="3">
@@ -8111,11 +9055,23 @@
         <v>13611</v>
       </c>
       <c r="AC79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -8138,7 +9094,7 @@
         <v>66683</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80" s="3">
@@ -8151,7 +9107,7 @@
         <v>2787</v>
       </c>
       <c r="M80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N80" s="3">
@@ -8164,7 +9120,7 @@
         <v>1624</v>
       </c>
       <c r="Q80" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R80" s="3">
@@ -8177,7 +9133,7 @@
         <v>1070679</v>
       </c>
       <c r="U80" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V80" s="3">
@@ -8190,7 +9146,7 @@
         <v>66129</v>
       </c>
       <c r="Y80" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z80" s="3">
@@ -8203,11 +9159,23 @@
         <v>35158</v>
       </c>
       <c r="AC80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -8230,7 +9198,7 @@
         <v>163487</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81" s="3">
@@ -8243,7 +9211,7 @@
         <v>7985</v>
       </c>
       <c r="M81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N81" s="3">
@@ -8256,7 +9224,7 @@
         <v>4471</v>
       </c>
       <c r="Q81" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R81" s="3">
@@ -8269,7 +9237,7 @@
         <v>912428</v>
       </c>
       <c r="U81" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V81" s="3">
@@ -8282,7 +9250,7 @@
         <v>35434</v>
       </c>
       <c r="Y81" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z81" s="3">
@@ -8295,11 +9263,23 @@
         <v>18813</v>
       </c>
       <c r="AC81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -8322,7 +9302,7 @@
         <v>354927</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82" s="3">
@@ -8335,7 +9315,7 @@
         <v>10771</v>
       </c>
       <c r="M82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N82" s="3">
@@ -8348,7 +9328,7 @@
         <v>4705</v>
       </c>
       <c r="Q82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R82" s="3">
@@ -8361,7 +9341,7 @@
         <v>818525</v>
       </c>
       <c r="U82" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V82" s="3">
@@ -8374,7 +9354,7 @@
         <v>30629</v>
       </c>
       <c r="Y82" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z82" s="3">
@@ -8387,11 +9367,23 @@
         <v>16461</v>
       </c>
       <c r="AC82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -8414,7 +9406,7 @@
         <v>58124</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" s="3">
@@ -8427,7 +9419,7 @@
         <v>1995</v>
       </c>
       <c r="M83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N83" s="3">
@@ -8440,7 +9432,7 @@
         <v>1190</v>
       </c>
       <c r="Q83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R83" s="3">
@@ -8453,7 +9445,7 @@
         <v>59303</v>
       </c>
       <c r="U83" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V83" s="3">
@@ -8466,7 +9458,7 @@
         <v>2154</v>
       </c>
       <c r="Y83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z83" s="3">
@@ -8479,11 +9471,23 @@
         <v>862</v>
       </c>
       <c r="AC83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -8506,7 +9510,7 @@
         <v>82146</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84" s="3">
@@ -8519,7 +9523,7 @@
         <v>4039</v>
       </c>
       <c r="M84" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N84" s="3">
@@ -8532,7 +9536,7 @@
         <v>2162</v>
       </c>
       <c r="Q84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R84" s="3">
@@ -8545,7 +9549,7 @@
         <v>772921</v>
       </c>
       <c r="U84" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V84" s="3">
@@ -8558,7 +9562,7 @@
         <v>32556</v>
       </c>
       <c r="Y84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z84" s="3">
@@ -8571,11 +9575,23 @@
         <v>19700</v>
       </c>
       <c r="AC84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -8598,7 +9614,7 @@
         <v>1405462</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J85" s="3">
@@ -8611,7 +9627,7 @@
         <v>44599</v>
       </c>
       <c r="M85" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N85" s="3">
@@ -8624,7 +9640,7 @@
         <v>30379</v>
       </c>
       <c r="Q85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R85" s="3">
@@ -8637,7 +9653,7 @@
         <v>9600518</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V85" s="3">
@@ -8650,7 +9666,7 @@
         <v>392407</v>
       </c>
       <c r="Y85" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z85" s="3">
@@ -8663,11 +9679,23 @@
         <v>215265</v>
       </c>
       <c r="AC85" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -8690,7 +9718,7 @@
         <v>56415</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J86" s="3">
@@ -8703,7 +9731,7 @@
         <v>2292</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N86" s="3">
@@ -8716,7 +9744,7 @@
         <v>2105</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R86" s="3">
@@ -8729,7 +9757,7 @@
         <v>98221</v>
       </c>
       <c r="U86" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V86" s="3">
@@ -8742,7 +9770,7 @@
         <v>5653</v>
       </c>
       <c r="Y86" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z86" s="3">
@@ -8755,11 +9783,23 @@
         <v>4339</v>
       </c>
       <c r="AC86" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -8782,7 +9822,7 @@
         <v>98755</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J87" s="3">
@@ -8795,7 +9835,7 @@
         <v>4888</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N87" s="3">
@@ -8808,7 +9848,7 @@
         <v>3840</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R87" s="3">
@@ -8821,7 +9861,7 @@
         <v>689023</v>
       </c>
       <c r="U87" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V87" s="3">
@@ -8834,7 +9874,7 @@
         <v>39032</v>
       </c>
       <c r="Y87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z87" s="3">
@@ -8847,11 +9887,23 @@
         <v>26990</v>
       </c>
       <c r="AC87" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -8874,7 +9926,7 @@
         <v>102433</v>
       </c>
       <c r="I88" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="J88" s="3" t="s">
@@ -8887,7 +9939,7 @@
         <v>2807</v>
       </c>
       <c r="M88" s="5" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N88" s="3" t="s">
@@ -8900,7 +9952,7 @@
         <v>2038</v>
       </c>
       <c r="Q88" s="5" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R88" s="3" t="s">
@@ -8913,916 +9965,1036 @@
         <v>760408</v>
       </c>
       <c r="U88" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X88" s="3">
+        <v>22450</v>
+      </c>
+      <c r="Y88" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>12981</v>
+      </c>
+      <c r="AC88" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE88" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="2">
+        <v>583224</v>
+      </c>
+      <c r="C89" s="2">
+        <v>29861</v>
+      </c>
+      <c r="D89" s="2">
+        <v>21234</v>
+      </c>
+      <c r="F89" s="3">
+        <v>31389</v>
+      </c>
+      <c r="G89" s="3">
+        <v>32290</v>
+      </c>
+      <c r="H89" s="3">
+        <v>63679</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2164</v>
+      </c>
+      <c r="K89" s="3">
+        <v>2180</v>
+      </c>
+      <c r="L89" s="3">
+        <v>4344</v>
+      </c>
+      <c r="M89" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>1833</v>
+      </c>
+      <c r="O89" s="3">
+        <v>1327</v>
+      </c>
+      <c r="P89" s="3">
+        <v>3160</v>
+      </c>
+      <c r="Q89" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>276702</v>
+      </c>
+      <c r="S89" s="3">
+        <v>242843</v>
+      </c>
+      <c r="T89" s="3">
+        <v>519545</v>
+      </c>
+      <c r="U89" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>13062</v>
+      </c>
+      <c r="W89" s="3">
+        <v>12455</v>
+      </c>
+      <c r="X89" s="3">
+        <v>25517</v>
+      </c>
+      <c r="Y89" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>8820</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>9254</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>18074</v>
+      </c>
+      <c r="AC89" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="2">
+        <v>516767</v>
+      </c>
+      <c r="C90" s="2">
+        <v>12399</v>
+      </c>
+      <c r="D90" s="2">
+        <v>7834</v>
+      </c>
+      <c r="F90" s="3">
+        <v>125186</v>
+      </c>
+      <c r="G90" s="3">
+        <v>53818</v>
+      </c>
+      <c r="H90" s="3">
+        <v>179004</v>
+      </c>
+      <c r="I90" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1983</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1601</v>
+      </c>
+      <c r="L90" s="3">
+        <v>3584</v>
+      </c>
+      <c r="M90" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
+        <v>1788</v>
+      </c>
+      <c r="O90" s="3">
+        <v>1151</v>
+      </c>
+      <c r="P90" s="3">
+        <v>2939</v>
+      </c>
+      <c r="Q90" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="3">
+        <v>201137</v>
+      </c>
+      <c r="S90" s="3">
+        <v>136626</v>
+      </c>
+      <c r="T90" s="3">
+        <v>337763</v>
+      </c>
+      <c r="U90" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="3">
+        <v>4745</v>
+      </c>
+      <c r="W90" s="3">
+        <v>4070</v>
+      </c>
+      <c r="X90" s="3">
+        <v>8815</v>
+      </c>
+      <c r="Y90" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>2733</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>2162</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>4895</v>
+      </c>
+      <c r="AC90" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1747254</v>
+      </c>
+      <c r="C91" s="2">
+        <v>103008</v>
+      </c>
+      <c r="D91" s="2">
+        <v>73726</v>
+      </c>
+      <c r="F91" s="3">
+        <v>60631</v>
+      </c>
+      <c r="G91" s="3">
+        <v>53199</v>
+      </c>
+      <c r="H91" s="3">
+        <v>113830</v>
+      </c>
+      <c r="I91" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>2341</v>
+      </c>
+      <c r="K91" s="3">
+        <v>2244</v>
+      </c>
+      <c r="L91" s="3">
+        <v>4585</v>
+      </c>
+      <c r="M91" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>2257</v>
+      </c>
+      <c r="O91" s="3">
+        <v>1848</v>
+      </c>
+      <c r="P91" s="3">
+        <v>4105</v>
+      </c>
+      <c r="Q91" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>812246</v>
+      </c>
+      <c r="S91" s="3">
+        <v>821178</v>
+      </c>
+      <c r="T91" s="3">
+        <v>1633424</v>
+      </c>
+      <c r="U91" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>50296</v>
+      </c>
+      <c r="W91" s="3">
+        <v>48127</v>
+      </c>
+      <c r="X91" s="3">
+        <v>98423</v>
+      </c>
+      <c r="Y91" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>36066</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>33555</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>69621</v>
+      </c>
+      <c r="AC91" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2755326</v>
+      </c>
+      <c r="C92" s="2">
+        <v>144494</v>
+      </c>
+      <c r="D92" s="2">
+        <v>84299</v>
+      </c>
+      <c r="F92" s="3">
+        <v>85991</v>
+      </c>
+      <c r="G92" s="3">
+        <v>84598</v>
+      </c>
+      <c r="H92" s="3">
+        <v>170589</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>5993</v>
+      </c>
+      <c r="K92" s="3">
+        <v>5634</v>
+      </c>
+      <c r="L92" s="3">
+        <v>11627</v>
+      </c>
+      <c r="M92" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>4620</v>
+      </c>
+      <c r="O92" s="3">
+        <v>4306</v>
+      </c>
+      <c r="P92" s="3">
+        <v>8926</v>
+      </c>
+      <c r="Q92" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>1294647</v>
+      </c>
+      <c r="S92" s="3">
+        <v>1290090</v>
+      </c>
+      <c r="T92" s="3">
+        <v>2584737</v>
+      </c>
+      <c r="U92" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>66803</v>
+      </c>
+      <c r="W92" s="3">
+        <v>66064</v>
+      </c>
+      <c r="X92" s="3">
+        <v>132867</v>
+      </c>
+      <c r="Y92" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>37342</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>38031</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>75373</v>
+      </c>
+      <c r="AC92" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="2">
+        <v>269449</v>
+      </c>
+      <c r="C93" s="2">
+        <v>8739</v>
+      </c>
+      <c r="D93" s="2">
+        <v>6116</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5609</v>
+      </c>
+      <c r="G93" s="3">
+        <v>4594</v>
+      </c>
+      <c r="H93" s="3">
+        <v>10203</v>
+      </c>
+      <c r="I93" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>270</v>
+      </c>
+      <c r="K93" s="3">
+        <v>253</v>
+      </c>
+      <c r="L93" s="3">
+        <v>523</v>
+      </c>
+      <c r="M93" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>145</v>
+      </c>
+      <c r="O93" s="3">
+        <v>165</v>
+      </c>
+      <c r="P93" s="3">
+        <v>310</v>
+      </c>
+      <c r="Q93" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>132529</v>
+      </c>
+      <c r="S93" s="3">
+        <v>126717</v>
+      </c>
+      <c r="T93" s="3">
+        <v>259246</v>
+      </c>
+      <c r="U93" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>4295</v>
+      </c>
+      <c r="W93" s="3">
+        <v>3921</v>
+      </c>
+      <c r="X93" s="3">
+        <v>8216</v>
+      </c>
+      <c r="Y93" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>3050</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>2756</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>5806</v>
+      </c>
+      <c r="AC93" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="2">
+        <v>5150</v>
+      </c>
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T94" s="3">
+        <v>5150</v>
+      </c>
+      <c r="U94" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y94" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC94" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE94" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG94" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="2">
+        <v>7682425</v>
+      </c>
+      <c r="C95" s="2">
+        <v>375623</v>
+      </c>
+      <c r="D95" s="2">
+        <v>245502</v>
+      </c>
+      <c r="F95" s="3">
+        <v>398511</v>
+      </c>
+      <c r="G95" s="3">
+        <v>293964</v>
+      </c>
+      <c r="H95" s="3">
+        <v>794908</v>
+      </c>
+      <c r="I95" s="5">
+        <f t="shared" si="9"/>
+        <v>-102433</v>
+      </c>
+      <c r="J95" s="3">
+        <v>16415</v>
+      </c>
+      <c r="K95" s="3">
+        <v>15428</v>
+      </c>
+      <c r="L95" s="3">
+        <v>34650</v>
+      </c>
+      <c r="M95" s="5">
+        <f t="shared" si="10"/>
+        <v>-2807</v>
+      </c>
+      <c r="N95" s="3">
+        <v>14083</v>
+      </c>
+      <c r="O95" s="3">
+        <v>11302</v>
+      </c>
+      <c r="P95" s="3">
+        <v>27423</v>
+      </c>
+      <c r="Q95" s="5">
+        <f t="shared" si="11"/>
+        <v>-2038</v>
+      </c>
+      <c r="R95" s="3">
+        <v>3136551</v>
+      </c>
+      <c r="S95" s="3">
+        <v>2985408</v>
+      </c>
+      <c r="T95" s="3">
+        <v>6887517</v>
+      </c>
+      <c r="U95" s="5">
+        <f t="shared" si="12"/>
+        <v>-765558</v>
+      </c>
+      <c r="V95" s="3">
+        <v>162002</v>
+      </c>
+      <c r="W95" s="3">
+        <v>156521</v>
+      </c>
+      <c r="X95" s="3">
+        <v>340973</v>
+      </c>
+      <c r="Y95" s="5">
+        <f t="shared" si="13"/>
+        <v>-22450</v>
+      </c>
+      <c r="Z95" s="3">
+        <v>104630</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>100468</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>218079</v>
+      </c>
+      <c r="AC95" s="5">
+        <f t="shared" si="14"/>
+        <v>-12981</v>
+      </c>
+      <c r="AE95" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="2">
+        <v>988005</v>
+      </c>
+      <c r="C96" s="2">
+        <v>41307</v>
+      </c>
+      <c r="D96" s="2">
+        <v>25193</v>
+      </c>
+      <c r="F96" s="3">
+        <v>75732</v>
+      </c>
+      <c r="G96" s="3">
+        <v>66707</v>
+      </c>
+      <c r="H96" s="3">
+        <v>142439</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>3887</v>
+      </c>
+      <c r="K96" s="3">
+        <v>3749</v>
+      </c>
+      <c r="L96" s="3">
+        <v>7636</v>
+      </c>
+      <c r="M96" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>3170</v>
+      </c>
+      <c r="O96" s="3">
+        <v>2827</v>
+      </c>
+      <c r="P96" s="3">
+        <v>5997</v>
+      </c>
+      <c r="Q96" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>444666</v>
+      </c>
+      <c r="S96" s="3">
+        <v>400900</v>
+      </c>
+      <c r="T96" s="3">
+        <v>845566</v>
+      </c>
+      <c r="U96" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>17006</v>
+      </c>
+      <c r="W96" s="3">
+        <v>16665</v>
+      </c>
+      <c r="X96" s="3">
+        <v>33671</v>
+      </c>
+      <c r="Y96" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>9741</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>9455</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>19196</v>
+      </c>
+      <c r="AC96" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="2">
+        <v>410913</v>
+      </c>
+      <c r="C97" s="2">
+        <v>10132</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5499</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H97" s="3">
+        <v>65502</v>
+      </c>
+      <c r="I97" s="5" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V88" s="3" t="s">
+      <c r="J97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="W88" s="3" t="s">
+      <c r="K97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="X88" s="3">
-        <v>22450</v>
-      </c>
-      <c r="Y88" s="5" t="e">
+      <c r="L97" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M97" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z88" s="3" t="s">
+      <c r="N97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AA88" s="3" t="s">
+      <c r="O97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AB88" s="2">
-        <v>12981</v>
-      </c>
-      <c r="AC88" s="5" t="e">
+      <c r="P97" s="3">
+        <v>1021</v>
+      </c>
+      <c r="Q97" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
+      <c r="R97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T97" s="3">
+        <v>345411</v>
+      </c>
+      <c r="U97" s="5" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X97" s="3">
+        <v>8532</v>
+      </c>
+      <c r="Y97" s="5" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>4478</v>
+      </c>
+      <c r="AC97" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE97" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG97" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="2">
-        <v>583224</v>
-      </c>
-      <c r="C89" s="2">
-        <v>29861</v>
-      </c>
-      <c r="D89" s="2">
-        <v>21234</v>
-      </c>
-      <c r="F89" s="3">
-        <v>31389</v>
-      </c>
-      <c r="G89" s="3">
-        <v>32290</v>
-      </c>
-      <c r="H89" s="3">
-        <v>63679</v>
-      </c>
-      <c r="I89" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>2164</v>
-      </c>
-      <c r="K89" s="3">
-        <v>2180</v>
-      </c>
-      <c r="L89" s="3">
-        <v>4344</v>
-      </c>
-      <c r="M89" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>1833</v>
-      </c>
-      <c r="O89" s="3">
-        <v>1327</v>
-      </c>
-      <c r="P89" s="3">
-        <v>3160</v>
-      </c>
-      <c r="Q89" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>276702</v>
-      </c>
-      <c r="S89" s="3">
-        <v>242843</v>
-      </c>
-      <c r="T89" s="3">
-        <v>519545</v>
-      </c>
-      <c r="U89" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>13062</v>
-      </c>
-      <c r="W89" s="3">
-        <v>12455</v>
-      </c>
-      <c r="X89" s="3">
-        <v>25517</v>
-      </c>
-      <c r="Y89" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>8820</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>9254</v>
-      </c>
-      <c r="AB89" s="2">
-        <v>18074</v>
-      </c>
-      <c r="AC89" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="2">
-        <v>516767</v>
-      </c>
-      <c r="C90" s="2">
-        <v>12399</v>
-      </c>
-      <c r="D90" s="2">
-        <v>7834</v>
-      </c>
-      <c r="F90" s="3">
-        <v>125186</v>
-      </c>
-      <c r="G90" s="3">
-        <v>53818</v>
-      </c>
-      <c r="H90" s="3">
-        <v>179004</v>
-      </c>
-      <c r="I90" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
-        <v>1983</v>
-      </c>
-      <c r="K90" s="3">
-        <v>1601</v>
-      </c>
-      <c r="L90" s="3">
-        <v>3584</v>
-      </c>
-      <c r="M90" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N90" s="3">
-        <v>1788</v>
-      </c>
-      <c r="O90" s="3">
-        <v>1151</v>
-      </c>
-      <c r="P90" s="3">
-        <v>2939</v>
-      </c>
-      <c r="Q90" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="3">
-        <v>201137</v>
-      </c>
-      <c r="S90" s="3">
-        <v>136626</v>
-      </c>
-      <c r="T90" s="3">
-        <v>337763</v>
-      </c>
-      <c r="U90" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V90" s="3">
-        <v>4745</v>
-      </c>
-      <c r="W90" s="3">
-        <v>4070</v>
-      </c>
-      <c r="X90" s="3">
-        <v>8815</v>
-      </c>
-      <c r="Y90" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="3">
-        <v>2733</v>
-      </c>
-      <c r="AA90" s="3">
-        <v>2162</v>
-      </c>
-      <c r="AB90" s="2">
-        <v>4895</v>
-      </c>
-      <c r="AC90" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1747254</v>
-      </c>
-      <c r="C91" s="2">
-        <v>103008</v>
-      </c>
-      <c r="D91" s="2">
-        <v>73726</v>
-      </c>
-      <c r="F91" s="3">
-        <v>60631</v>
-      </c>
-      <c r="G91" s="3">
-        <v>53199</v>
-      </c>
-      <c r="H91" s="3">
-        <v>113830</v>
-      </c>
-      <c r="I91" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>2341</v>
-      </c>
-      <c r="K91" s="3">
-        <v>2244</v>
-      </c>
-      <c r="L91" s="3">
-        <v>4585</v>
-      </c>
-      <c r="M91" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>2257</v>
-      </c>
-      <c r="O91" s="3">
-        <v>1848</v>
-      </c>
-      <c r="P91" s="3">
-        <v>4105</v>
-      </c>
-      <c r="Q91" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>812246</v>
-      </c>
-      <c r="S91" s="3">
-        <v>821178</v>
-      </c>
-      <c r="T91" s="3">
-        <v>1633424</v>
-      </c>
-      <c r="U91" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>50296</v>
-      </c>
-      <c r="W91" s="3">
-        <v>48127</v>
-      </c>
-      <c r="X91" s="3">
-        <v>98423</v>
-      </c>
-      <c r="Y91" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>36066</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>33555</v>
-      </c>
-      <c r="AB91" s="2">
-        <v>69621</v>
-      </c>
-      <c r="AC91" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="2">
-        <v>2755326</v>
-      </c>
-      <c r="C92" s="2">
-        <v>144494</v>
-      </c>
-      <c r="D92" s="2">
-        <v>84299</v>
-      </c>
-      <c r="F92" s="3">
-        <v>85991</v>
-      </c>
-      <c r="G92" s="3">
-        <v>84598</v>
-      </c>
-      <c r="H92" s="3">
-        <v>170589</v>
-      </c>
-      <c r="I92" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
-        <v>5993</v>
-      </c>
-      <c r="K92" s="3">
-        <v>5634</v>
-      </c>
-      <c r="L92" s="3">
-        <v>11627</v>
-      </c>
-      <c r="M92" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N92" s="3">
-        <v>4620</v>
-      </c>
-      <c r="O92" s="3">
-        <v>4306</v>
-      </c>
-      <c r="P92" s="3">
-        <v>8926</v>
-      </c>
-      <c r="Q92" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R92" s="3">
-        <v>1294647</v>
-      </c>
-      <c r="S92" s="3">
-        <v>1290090</v>
-      </c>
-      <c r="T92" s="3">
-        <v>2584737</v>
-      </c>
-      <c r="U92" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="3">
-        <v>66803</v>
-      </c>
-      <c r="W92" s="3">
-        <v>66064</v>
-      </c>
-      <c r="X92" s="3">
-        <v>132867</v>
-      </c>
-      <c r="Y92" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z92" s="3">
-        <v>37342</v>
-      </c>
-      <c r="AA92" s="3">
-        <v>38031</v>
-      </c>
-      <c r="AB92" s="2">
-        <v>75373</v>
-      </c>
-      <c r="AC92" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="2">
-        <v>269449</v>
-      </c>
-      <c r="C93" s="2">
-        <v>8739</v>
-      </c>
-      <c r="D93" s="2">
-        <v>6116</v>
-      </c>
-      <c r="F93" s="3">
-        <v>5609</v>
-      </c>
-      <c r="G93" s="3">
-        <v>4594</v>
-      </c>
-      <c r="H93" s="3">
-        <v>10203</v>
-      </c>
-      <c r="I93" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="3">
-        <v>270</v>
-      </c>
-      <c r="K93" s="3">
-        <v>253</v>
-      </c>
-      <c r="L93" s="3">
-        <v>523</v>
-      </c>
-      <c r="M93" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="3">
-        <v>145</v>
-      </c>
-      <c r="O93" s="3">
-        <v>165</v>
-      </c>
-      <c r="P93" s="3">
-        <v>310</v>
-      </c>
-      <c r="Q93" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="3">
-        <v>132529</v>
-      </c>
-      <c r="S93" s="3">
-        <v>126717</v>
-      </c>
-      <c r="T93" s="3">
-        <v>259246</v>
-      </c>
-      <c r="U93" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V93" s="3">
-        <v>4295</v>
-      </c>
-      <c r="W93" s="3">
-        <v>3921</v>
-      </c>
-      <c r="X93" s="3">
-        <v>8216</v>
-      </c>
-      <c r="Y93" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="3">
-        <v>3050</v>
-      </c>
-      <c r="AA93" s="3">
-        <v>2756</v>
-      </c>
-      <c r="AB93" s="2">
-        <v>5806</v>
-      </c>
-      <c r="AC93" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="2">
-        <v>5150</v>
-      </c>
-      <c r="C94" t="s">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1026891</v>
+      </c>
+      <c r="C98" t="s">
         <v>110</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="G98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="T94" s="3">
-        <v>5150</v>
-      </c>
-      <c r="U94" s="5" t="e">
+      <c r="H98" s="3">
+        <v>135473</v>
+      </c>
+      <c r="I98" s="5" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="L98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Y94" s="5" t="e">
+      <c r="M98" s="5" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z94" s="3" t="s">
+      <c r="N98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AA94" s="3" t="s">
+      <c r="O98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AB94" s="3" t="s">
+      <c r="P98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AC94" s="5" t="e">
+      <c r="Q98" s="5" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="2">
-        <v>7682425</v>
-      </c>
-      <c r="C95" s="2">
-        <v>375623</v>
-      </c>
-      <c r="D95" s="2">
-        <v>245502</v>
-      </c>
-      <c r="F95" s="3">
-        <v>398511</v>
-      </c>
-      <c r="G95" s="3">
-        <v>293964</v>
-      </c>
-      <c r="H95" s="3">
-        <v>794908</v>
-      </c>
-      <c r="I95" s="5">
-        <f t="shared" si="6"/>
-        <v>-102433</v>
-      </c>
-      <c r="J95" s="3">
-        <v>16415</v>
-      </c>
-      <c r="K95" s="3">
-        <v>15428</v>
-      </c>
-      <c r="L95" s="3">
-        <v>34650</v>
-      </c>
-      <c r="M95" s="5">
-        <f t="shared" si="7"/>
-        <v>-2807</v>
-      </c>
-      <c r="N95" s="3">
-        <v>14083</v>
-      </c>
-      <c r="O95" s="3">
-        <v>11302</v>
-      </c>
-      <c r="P95" s="3">
-        <v>27423</v>
-      </c>
-      <c r="Q95" s="5">
-        <f t="shared" si="8"/>
-        <v>-2038</v>
-      </c>
-      <c r="R95" s="3">
-        <v>3136551</v>
-      </c>
-      <c r="S95" s="3">
-        <v>2985408</v>
-      </c>
-      <c r="T95" s="3">
-        <v>6887517</v>
-      </c>
-      <c r="U95" s="5">
-        <f t="shared" si="9"/>
-        <v>-765558</v>
-      </c>
-      <c r="V95" s="3">
-        <v>162002</v>
-      </c>
-      <c r="W95" s="3">
-        <v>156521</v>
-      </c>
-      <c r="X95" s="3">
-        <v>340973</v>
-      </c>
-      <c r="Y95" s="5">
-        <f t="shared" si="10"/>
-        <v>-22450</v>
-      </c>
-      <c r="Z95" s="3">
-        <v>104630</v>
-      </c>
-      <c r="AA95" s="3">
-        <v>100468</v>
-      </c>
-      <c r="AB95" s="2">
-        <v>218079</v>
-      </c>
-      <c r="AC95" s="5">
-        <f t="shared" si="11"/>
-        <v>-12981</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="2">
-        <v>988005</v>
-      </c>
-      <c r="C96" s="2">
-        <v>41307</v>
-      </c>
-      <c r="D96" s="2">
-        <v>25193</v>
-      </c>
-      <c r="F96" s="3">
-        <v>75732</v>
-      </c>
-      <c r="G96" s="3">
-        <v>66707</v>
-      </c>
-      <c r="H96" s="3">
-        <v>142439</v>
-      </c>
-      <c r="I96" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>3887</v>
-      </c>
-      <c r="K96" s="3">
-        <v>3749</v>
-      </c>
-      <c r="L96" s="3">
-        <v>7636</v>
-      </c>
-      <c r="M96" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>3170</v>
-      </c>
-      <c r="O96" s="3">
-        <v>2827</v>
-      </c>
-      <c r="P96" s="3">
-        <v>5997</v>
-      </c>
-      <c r="Q96" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>444666</v>
-      </c>
-      <c r="S96" s="3">
-        <v>400900</v>
-      </c>
-      <c r="T96" s="3">
-        <v>845566</v>
-      </c>
-      <c r="U96" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>17006</v>
-      </c>
-      <c r="W96" s="3">
-        <v>16665</v>
-      </c>
-      <c r="X96" s="3">
-        <v>33671</v>
-      </c>
-      <c r="Y96" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>9741</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>9455</v>
-      </c>
-      <c r="AB96" s="2">
-        <v>19196</v>
-      </c>
-      <c r="AC96" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="2">
-        <v>410913</v>
-      </c>
-      <c r="C97" s="2">
-        <v>10132</v>
-      </c>
-      <c r="D97" s="2">
-        <v>5499</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H97" s="3">
-        <v>65502</v>
-      </c>
-      <c r="I97" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L97" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M97" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P97" s="3">
-        <v>1021</v>
-      </c>
-      <c r="Q97" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T97" s="3">
-        <v>345411</v>
-      </c>
-      <c r="U97" s="5" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="W97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="X97" s="3">
-        <v>8532</v>
-      </c>
-      <c r="Y97" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA97" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB97" s="2">
-        <v>4478</v>
-      </c>
-      <c r="AC97" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="2">
-        <v>1026891</v>
-      </c>
-      <c r="C98" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H98" s="3">
-        <v>135473</v>
-      </c>
-      <c r="I98" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M98" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q98" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R98" s="3" t="s">
         <v>110</v>
       </c>
@@ -9833,7 +11005,7 @@
         <v>891418</v>
       </c>
       <c r="U98" s="5" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="V98" s="3" t="s">
@@ -9846,7 +11018,7 @@
         <v>110</v>
       </c>
       <c r="Y98" s="5" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z98" s="3" t="s">
@@ -9859,11 +11031,23 @@
         <v>110</v>
       </c>
       <c r="AC98" s="5" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AE98" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG98" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -9886,7 +11070,7 @@
         <v>54547</v>
       </c>
       <c r="I99" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J99" s="3">
@@ -9899,7 +11083,7 @@
         <v>3083</v>
       </c>
       <c r="M99" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N99" s="3">
@@ -9912,7 +11096,7 @@
         <v>2144</v>
       </c>
       <c r="Q99" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R99" s="3">
@@ -9925,7 +11109,7 @@
         <v>695146</v>
       </c>
       <c r="U99" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V99" s="3">
@@ -9938,7 +11122,7 @@
         <v>13770</v>
       </c>
       <c r="Y99" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z99" s="3">
@@ -9951,11 +11135,23 @@
         <v>8864</v>
       </c>
       <c r="AC99" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE99" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -9978,7 +11174,7 @@
         <v>91504</v>
       </c>
       <c r="I100" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J100" s="3">
@@ -9991,7 +11187,7 @@
         <v>3784</v>
       </c>
       <c r="M100" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N100" s="3">
@@ -10004,7 +11200,7 @@
         <v>1744</v>
       </c>
       <c r="Q100" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R100" s="3">
@@ -10017,7 +11213,7 @@
         <v>976187</v>
       </c>
       <c r="U100" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V100" s="3">
@@ -10030,7 +11226,7 @@
         <v>30418</v>
       </c>
       <c r="Y100" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z100" s="3">
@@ -10043,11 +11239,23 @@
         <v>16163</v>
       </c>
       <c r="AC100" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -10070,7 +11278,7 @@
         <v>236695</v>
       </c>
       <c r="I101" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J101" s="3">
@@ -10083,7 +11291,7 @@
         <v>10562</v>
       </c>
       <c r="M101" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N101" s="3">
@@ -10096,7 +11304,7 @@
         <v>4613</v>
       </c>
       <c r="Q101" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R101" s="3">
@@ -10109,7 +11317,7 @@
         <v>1430773</v>
       </c>
       <c r="U101" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V101" s="3">
@@ -10122,7 +11330,7 @@
         <v>48577</v>
       </c>
       <c r="Y101" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z101" s="3">
@@ -10135,11 +11343,23 @@
         <v>29511</v>
       </c>
       <c r="AC101" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -10162,7 +11382,7 @@
         <v>30205</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J102" s="3">
@@ -10175,7 +11395,7 @@
         <v>1926</v>
       </c>
       <c r="M102" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N102" s="3">
@@ -10188,7 +11408,7 @@
         <v>1066</v>
       </c>
       <c r="Q102" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R102" s="3">
@@ -10201,7 +11421,7 @@
         <v>562346</v>
       </c>
       <c r="U102" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V102" s="3">
@@ -10214,7 +11434,7 @@
         <v>20570</v>
       </c>
       <c r="Y102" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z102" s="3">
@@ -10227,11 +11447,23 @@
         <v>12773</v>
       </c>
       <c r="AC102" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -10241,8 +11473,8 @@
       <c r="C103" s="2">
         <v>19197</v>
       </c>
-      <c r="D103" s="2">
-        <v>12141</v>
+      <c r="D103" s="9">
+        <v>12144</v>
       </c>
       <c r="F103" s="3">
         <v>30447</v>
@@ -10254,7 +11486,7 @@
         <v>59287</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J103" s="3">
@@ -10267,7 +11499,7 @@
         <v>2971</v>
       </c>
       <c r="M103" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N103" s="3">
@@ -10280,7 +11512,7 @@
         <v>1908</v>
       </c>
       <c r="Q103" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R103" s="3">
@@ -10293,7 +11525,7 @@
         <v>677478</v>
       </c>
       <c r="U103" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V103" s="3">
@@ -10306,7 +11538,7 @@
         <v>16226</v>
       </c>
       <c r="Y103" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z103" s="3">
@@ -10319,11 +11551,23 @@
         <v>10236</v>
       </c>
       <c r="AC103" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -10346,7 +11590,7 @@
         <v>296022</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J104" s="3">
@@ -10359,7 +11603,7 @@
         <v>9826</v>
       </c>
       <c r="M104" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N104" s="3">
@@ -10372,7 +11616,7 @@
         <v>5621</v>
       </c>
       <c r="Q104" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R104" s="3">
@@ -10385,7 +11629,7 @@
         <v>1618132</v>
       </c>
       <c r="U104" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V104" s="3">
@@ -10398,7 +11642,7 @@
         <v>42211</v>
       </c>
       <c r="Y104" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z104" s="3">
@@ -10411,11 +11655,23 @@
         <v>22419</v>
       </c>
       <c r="AC104" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -10425,8 +11681,8 @@
       <c r="C105" s="2">
         <v>255363</v>
       </c>
-      <c r="D105" s="2">
-        <v>147751</v>
+      <c r="D105" s="9">
+        <v>147754</v>
       </c>
       <c r="F105" s="3">
         <v>488451</v>
@@ -10438,7 +11694,7 @@
         <v>1111674</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-200975</v>
       </c>
       <c r="J105" s="3">
@@ -10451,7 +11707,7 @@
         <v>41388</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1600</v>
       </c>
       <c r="N105" s="3">
@@ -10464,7 +11720,7 @@
         <v>24114</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1021</v>
       </c>
       <c r="R105" s="3">
@@ -10477,7 +11733,7 @@
         <v>8042457</v>
       </c>
       <c r="U105" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1236829</v>
       </c>
       <c r="V105" s="3">
@@ -10490,7 +11746,7 @@
         <v>213975</v>
       </c>
       <c r="Y105" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-8532</v>
       </c>
       <c r="Z105" s="3">
@@ -10503,11 +11759,23 @@
         <v>123640</v>
       </c>
       <c r="AC105" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4478</v>
       </c>
+      <c r="AE105" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -10530,7 +11798,7 @@
         <v>3312044</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-303408</v>
       </c>
       <c r="J106" s="3">
@@ -10543,7 +11811,7 @@
         <v>120637</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-4407</v>
       </c>
       <c r="N106" s="3">
@@ -10556,7 +11824,7 @@
         <v>81916</v>
       </c>
       <c r="Q106" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-3059</v>
       </c>
       <c r="R106" s="3">
@@ -10569,7 +11837,7 @@
         <v>24530492</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2002387</v>
       </c>
       <c r="V106" s="3">
@@ -10582,7 +11850,7 @@
         <v>947355</v>
       </c>
       <c r="Y106" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-30982</v>
       </c>
       <c r="Z106" s="3">
@@ -10595,19 +11863,31 @@
         <v>556984</v>
       </c>
       <c r="AC106" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-17459</v>
       </c>
+      <c r="AE106" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107" s="2">
         <v>153334999</v>
       </c>
-      <c r="C107" s="2">
-        <v>6742479</v>
+      <c r="C107" s="9">
+        <v>6742429</v>
       </c>
       <c r="D107" s="2">
         <v>4047337</v>
@@ -10622,7 +11902,7 @@
         <v>19829593</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-303408</v>
       </c>
       <c r="J107" s="3">
@@ -10635,7 +11915,7 @@
         <v>731994</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-4407</v>
       </c>
       <c r="N107" s="3">
@@ -10648,7 +11928,7 @@
         <v>525354</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-3059</v>
       </c>
       <c r="R107" s="3">
@@ -10661,7 +11941,7 @@
         <v>133505406</v>
       </c>
       <c r="U107" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2002387</v>
       </c>
       <c r="V107" s="3">
@@ -10674,7 +11954,7 @@
         <v>6010435</v>
       </c>
       <c r="Y107" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-30932</v>
       </c>
       <c r="Z107" s="3">
@@ -10687,11 +11967,23 @@
         <v>3521983</v>
       </c>
       <c r="AC107" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-17459</v>
       </c>
+      <c r="AE107" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF107" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -10719,8 +12011,11 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
       <c r="AC108" s="7"/>
+      <c r="AE108" s="7"/>
+      <c r="AF108" s="7"/>
+      <c r="AG108" s="7"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>130</v>
       </c>
@@ -10751,8 +12046,11 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
       <c r="AC109" s="7"/>
+      <c r="AE109" s="7"/>
+      <c r="AF109" s="7"/>
+      <c r="AG109" s="7"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -10780,8 +12078,11 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="7"/>
+      <c r="AE110" s="7"/>
+      <c r="AF110" s="7"/>
+      <c r="AG110" s="7"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>131</v>
       </c>
@@ -10812,8 +12113,11 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="7"/>
+      <c r="AE111" s="7"/>
+      <c r="AF111" s="7"/>
+      <c r="AG111" s="7"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>132</v>
       </c>
@@ -10844,8 +12148,11 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="7"/>
+      <c r="AE112" s="7"/>
+      <c r="AF112" s="7"/>
+      <c r="AG112" s="7"/>
     </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -10873,8 +12180,11 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
       <c r="AC113" s="7"/>
+      <c r="AE113" s="7"/>
+      <c r="AF113" s="7"/>
+      <c r="AG113" s="7"/>
     </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -10902,8 +12212,11 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
       <c r="AC114" s="7"/>
+      <c r="AE114" s="7"/>
+      <c r="AF114" s="7"/>
+      <c r="AG114" s="7"/>
     </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -10931,8 +12244,11 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="7"/>
+      <c r="AE115" s="7"/>
+      <c r="AF115" s="7"/>
+      <c r="AG115" s="7"/>
     </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -10960,8 +12276,11 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
       <c r="AC116" s="7"/>
+      <c r="AE116" s="7"/>
+      <c r="AF116" s="7"/>
+      <c r="AG116" s="7"/>
     </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -10989,8 +12308,11 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="7"/>
+      <c r="AE117" s="7"/>
+      <c r="AF117" s="7"/>
+      <c r="AG117" s="7"/>
     </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -11018,6 +12340,29 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="7"/>
+      <c r="AE118" s="7"/>
+      <c r="AF118" s="7"/>
+      <c r="AG118" s="7"/>
+    </row>
+    <row r="119" spans="2:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE119" s="7"/>
+      <c r="AF119" s="7"/>
+      <c r="AG119" s="7"/>
+    </row>
+    <row r="120" spans="2:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE120" s="7"/>
+      <c r="AF120" s="7"/>
+      <c r="AG120" s="7"/>
+    </row>
+    <row r="121" spans="2:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE121" s="7"/>
+      <c r="AF121" s="7"/>
+      <c r="AG121" s="7"/>
+    </row>
+    <row r="122" spans="2:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE122" s="7"/>
+      <c r="AF122" s="7"/>
+      <c r="AG122" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
